--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>909525.7594590966</v>
+        <v>839262.6293207281</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410103.5693545243</v>
+        <v>410103.569354524</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7683309.665355322</v>
+        <v>7683309.665355321</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>274.2838073416025</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="F2" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G2" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.5469463391128</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
@@ -800,13 +800,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.27905463269151</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.52197897182606</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>35.70559250379693</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>150.3977678162259</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
@@ -1037,13 +1037,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>145.8355658494302</v>
+        <v>77.14452237127365</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>14.2515927007277</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>181.6612946870253</v>
       </c>
       <c r="W9" t="n">
-        <v>145.8355658494302</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.31358183798124</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>329.6403859656867</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I11" t="n">
-        <v>163.3117380016203</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.55977888071592</v>
+        <v>73.559778880716</v>
       </c>
       <c r="S11" t="n">
-        <v>181.0913913621372</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.2060931489365</v>
+        <v>181.5542676205028</v>
       </c>
       <c r="U11" t="n">
         <v>251.3907911210793</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4415306281902</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>66.47641768350113</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>58.57982147197342</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T12" t="n">
-        <v>79.48835865064886</v>
+        <v>196.0379550173603</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6189086739872</v>
+        <v>198.0949836570795</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>64.49589313713474</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8588123845238</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>278.3547055216581</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -1618,16 +1618,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I14" t="n">
-        <v>163.3117380016203</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.55977888071591</v>
+        <v>73.55977888071598</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>173.7519674193087</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.3609342113852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4415306281902</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>66.47641768350113</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.57982147197337</v>
+        <v>58.57982147197341</v>
       </c>
       <c r="S15" t="n">
-        <v>158.1571708882373</v>
+        <v>131.6332458713298</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.0379550173603</v>
       </c>
       <c r="U15" t="n">
-        <v>87.3702749644257</v>
+        <v>224.6189086739872</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.6060316538903</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.9461415535475</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
@@ -1861,7 +1861,7 @@
         <v>413.7676097105165</v>
       </c>
       <c r="H17" t="n">
-        <v>281.6214724938839</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.55977888071592</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>16.90757099816194</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,19 +1931,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>101.6946076919914</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H18" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>66.47641768350113</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.57982147197338</v>
+        <v>58.57982147197341</v>
       </c>
       <c r="S18" t="n">
-        <v>158.1571708882373</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T18" t="n">
         <v>196.0379550173603</v>
@@ -1988,7 +1988,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>198.5296076705539</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>117.8185414823339</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>151.4641530024159</v>
+        <v>151.464153002416</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.2488251719237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>186.7343042347343</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
@@ -2095,13 +2095,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.3117380016203</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.55977888071591</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>181.0913913621372</v>
@@ -2137,13 +2137,13 @@
         <v>218.2060931489365</v>
       </c>
       <c r="U20" t="n">
-        <v>162.3745223023078</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>322.8688625424675</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>149.2235443854694</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -2174,13 +2174,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4415306281902</v>
+        <v>123.249136074102</v>
       </c>
       <c r="H21" t="n">
         <v>104.844715398324</v>
       </c>
       <c r="I21" t="n">
-        <v>66.47641768350113</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.57982147197337</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.1571708882373</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T21" t="n">
-        <v>196.0379550173603</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>224.6189086739872</v>
@@ -2283,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.92577309034238</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>151.4641530024159</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8588123845238</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1985439317919</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>278.3547055216582</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>158.1120627472098</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>50.43610355460728</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
         <v>251.3684020854885</v>
@@ -2380,13 +2380,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>224.6090573663165</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396554</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>188.3450137759191</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.3927968208128</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -2572,7 +2572,7 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
-        <v>324.1439237596927</v>
+        <v>122.4193671491613</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>166.6314627625424</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.980993107702</v>
@@ -2617,13 +2617,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084788</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>42.44899948440624</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>95.31032463304051</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>308.5122670442876</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>145.6095823010056</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I30" t="n">
-        <v>61.32090000246101</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V31" t="n">
-        <v>225.2207127370241</v>
+        <v>155.2625415881468</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>366.9735847292825</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>265.8861194098254</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3128,7 +3128,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I33" t="n">
-        <v>61.32090000246101</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3231,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S34" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>122.1491515286937</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>128.5531732636837</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>118.1271821712405</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S35" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>288.7846418189058</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I36" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>39.55371762856529</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>95.31032463304051</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>83.47002887444779</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
@@ -3520,10 +3520,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>124.4509902376821</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S38" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.980993107702</v>
@@ -3565,10 +3565,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.2917907515945</v>
+        <v>135.2917907515943</v>
       </c>
       <c r="H39" t="n">
         <v>103.3985434322537</v>
@@ -3641,7 +3641,7 @@
         <v>224.6090573663165</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>231.9087310396554</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.85604878444137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.7124403105487</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>42.87691910616687</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>268.3605673457068</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>18.43131950543335</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>155.1887879554427</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.3927968208129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>77.28820800437326</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>215.9808969947917</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4143,7 +4143,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>89.96448705601206</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>160.5860899540987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C2" t="n">
         <v>820.0808785163064</v>
@@ -4315,10 +4315,10 @@
         <v>820.0808785163064</v>
       </c>
       <c r="E2" t="n">
-        <v>543.0265276662028</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F2" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G2" t="n">
         <v>21.9427045873282</v>
@@ -4342,10 +4342,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4375,7 +4375,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="3">
@@ -4409,52 +4409,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L3" t="n">
-        <v>21.9427045873282</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M3" t="n">
-        <v>293.4836738555147</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N3" t="n">
-        <v>565.0246431237011</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>830.8154377838487</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="U3" t="n">
-        <v>603.8889963018272</v>
+        <v>715.2353383228165</v>
       </c>
       <c r="V3" t="n">
-        <v>369.6377528274281</v>
+        <v>480.9840948484174</v>
       </c>
       <c r="W3" t="n">
-        <v>369.6377528274281</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X3" t="n">
-        <v>369.6377528274281</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y3" t="n">
-        <v>163.9093170510785</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>39.39629512540043</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
         <v>21.9427045873282</v>
@@ -4509,31 +4509,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.6630345283467</v>
+        <v>197.0852779911487</v>
       </c>
       <c r="R4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.0265276662028</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C5" t="n">
-        <v>543.0265276662028</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D5" t="n">
-        <v>543.0265276662028</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E5" t="n">
-        <v>543.0265276662028</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F5" t="n">
-        <v>543.0265276662028</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G5" t="n">
-        <v>506.9602726118625</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
         <v>22.60864108688619</v>
@@ -4570,10 +4570,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L5" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M5" t="n">
         <v>586.1689795623909</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.13522936641</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="Y5" t="n">
-        <v>820.0808785163064</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E6" t="n">
         <v>21.9427045873282</v>
@@ -4646,52 +4646,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>277.4136198757311</v>
+        <v>274.3046529787421</v>
       </c>
       <c r="M6" t="n">
-        <v>548.9545891439176</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N6" t="n">
-        <v>820.4955584121041</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O6" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>403.5026004348891</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V6" t="n">
-        <v>169.25135696049</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W6" t="n">
-        <v>21.9427045873282</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="X6" t="n">
-        <v>21.9427045873282</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>352.3053486626563</v>
       </c>
     </row>
     <row r="7">
@@ -4746,22 +4746,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
         <v>21.9427045873282</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.2399852622009</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C8" t="n">
-        <v>229.2399852622009</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D8" t="n">
-        <v>229.2399852622009</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E8" t="n">
-        <v>229.2399852622009</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F8" t="n">
-        <v>229.2399852622009</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G8" t="n">
-        <v>229.2399852622009</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H8" t="n">
-        <v>229.2399852622009</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4813,13 +4813,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
         <v>1093.116282134284</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>506.2943361123045</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>506.2943361123045</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>506.2943361123045</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>506.2943361123045</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>229.2399852622009</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>688.1965482020685</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>959.7375174702549</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O9" t="n">
-        <v>1097.13522936641</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4907,25 +4907,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>403.5026004348891</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V9" t="n">
-        <v>169.25135696049</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W9" t="n">
-        <v>21.9427045873282</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X9" t="n">
-        <v>21.9427045873282</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y9" t="n">
         <v>21.9427045873282</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
         <v>21.9427045873282</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>111.6789115850847</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>111.6789115850847</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>111.6789115850847</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>111.6789115850847</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>111.6789115850847</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.0227942864127</v>
+        <v>1155.528526213172</v>
       </c>
       <c r="C11" t="n">
-        <v>212.0227942864127</v>
+        <v>1155.528526213172</v>
       </c>
       <c r="D11" t="n">
-        <v>212.0227942864127</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="E11" t="n">
-        <v>212.0227942864127</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="F11" t="n">
-        <v>212.0227942864127</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="G11" t="n">
-        <v>212.0227942864127</v>
+        <v>377.3746449352782</v>
       </c>
       <c r="H11" t="n">
-        <v>212.0227942864127</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I11" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J11" t="n">
-        <v>137.757029126597</v>
+        <v>137.7570291265968</v>
       </c>
       <c r="K11" t="n">
-        <v>395.9627954019089</v>
+        <v>395.9627954019086</v>
       </c>
       <c r="L11" t="n">
-        <v>768.2589587052585</v>
+        <v>768.2589587052581</v>
       </c>
       <c r="M11" t="n">
         <v>1197.72246802921</v>
       </c>
       <c r="N11" t="n">
-        <v>1618.61797093203</v>
+        <v>1618.617970932029</v>
       </c>
       <c r="O11" t="n">
-        <v>1969.929307769078</v>
+        <v>1969.929307769077</v>
       </c>
       <c r="P11" t="n">
-        <v>2232.826612716458</v>
+        <v>2232.826612716457</v>
       </c>
       <c r="Q11" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R11" t="n">
-        <v>2278.769331531008</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="S11" t="n">
-        <v>2095.848734195516</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="T11" t="n">
-        <v>1875.43853909558</v>
+        <v>2095.381182419388</v>
       </c>
       <c r="U11" t="n">
-        <v>1621.508447054086</v>
+        <v>1841.451090377893</v>
       </c>
       <c r="V11" t="n">
-        <v>1289.65670814245</v>
+        <v>1509.599351466258</v>
       </c>
       <c r="W11" t="n">
-        <v>935.5858828893648</v>
+        <v>1155.528526213172</v>
       </c>
       <c r="X11" t="n">
-        <v>935.5858828893648</v>
+        <v>1155.528526213172</v>
       </c>
       <c r="Y11" t="n">
-        <v>544.9928811204397</v>
+        <v>1155.528526213172</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.8294599441549</v>
+        <v>669.9681834693919</v>
       </c>
       <c r="C12" t="n">
-        <v>807.076344865972</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D12" t="n">
-        <v>659.4880382249158</v>
+        <v>349.6267617501529</v>
       </c>
       <c r="E12" t="n">
-        <v>501.8785092277706</v>
+        <v>192.0172327530076</v>
       </c>
       <c r="F12" t="n">
-        <v>356.9227192443875</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1130923472256</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="H12" t="n">
-        <v>114.2093394196257</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I12" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J12" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="K12" t="n">
-        <v>107.1143052499137</v>
+        <v>261.8008521287446</v>
       </c>
       <c r="L12" t="n">
-        <v>480.227378891588</v>
+        <v>634.9139257704187</v>
       </c>
       <c r="M12" t="n">
-        <v>968.4329312993971</v>
+        <v>1123.119478178228</v>
       </c>
       <c r="N12" t="n">
-        <v>1484.958563981913</v>
+        <v>1639.645110860743</v>
       </c>
       <c r="O12" t="n">
-        <v>1889.850587719948</v>
+        <v>2044.537134598778</v>
       </c>
       <c r="P12" t="n">
-        <v>2198.385591602395</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="Q12" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R12" t="n">
-        <v>2353.072138481226</v>
+        <v>2293.900601640848</v>
       </c>
       <c r="S12" t="n">
-        <v>2353.072138481226</v>
+        <v>2134.145883571921</v>
       </c>
       <c r="T12" t="n">
-        <v>2272.780867116934</v>
+        <v>1936.127747190749</v>
       </c>
       <c r="U12" t="n">
-        <v>2045.893080577553</v>
+        <v>1736.03180410279</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.641837103154</v>
+        <v>1501.780560628391</v>
       </c>
       <c r="W12" t="n">
-        <v>1559.127345436487</v>
+        <v>1249.266068961724</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.600446842065</v>
+        <v>1042.739170367302</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.872011065715</v>
+        <v>837.0107345909523</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="C13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="D13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="E13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="F13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="G13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="H13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="K13" t="n">
-        <v>88.52550135650138</v>
+        <v>88.52550135650129</v>
       </c>
       <c r="L13" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084142</v>
       </c>
       <c r="M13" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499602</v>
       </c>
       <c r="N13" t="n">
-        <v>450.2970280645392</v>
+        <v>450.2970280645389</v>
       </c>
       <c r="O13" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211511</v>
       </c>
       <c r="P13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128797999</v>
       </c>
       <c r="Q13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128797999</v>
       </c>
       <c r="R13" t="n">
-        <v>552.0628460746137</v>
+        <v>617.2102128797999</v>
       </c>
       <c r="S13" t="n">
-        <v>336.0438436660039</v>
+        <v>617.2102128797999</v>
       </c>
       <c r="T13" t="n">
-        <v>336.0438436660039</v>
+        <v>617.2102128797999</v>
       </c>
       <c r="U13" t="n">
-        <v>336.0438436660039</v>
+        <v>336.0438436660038</v>
       </c>
       <c r="V13" t="n">
-        <v>336.0438436660039</v>
+        <v>336.0438436660038</v>
       </c>
       <c r="W13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="X13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.0614427696245</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1741.317468699917</v>
+        <v>1495.261376439145</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.625452862601</v>
+        <v>1124.56936060183</v>
       </c>
       <c r="D14" t="n">
-        <v>1010.418652100381</v>
+        <v>764.362559839609</v>
       </c>
       <c r="E14" t="n">
-        <v>623.43073719605</v>
+        <v>377.3746449352782</v>
       </c>
       <c r="F14" t="n">
-        <v>212.0227942864127</v>
+        <v>377.3746449352782</v>
       </c>
       <c r="G14" t="n">
-        <v>212.0227942864127</v>
+        <v>377.3746449352782</v>
       </c>
       <c r="H14" t="n">
-        <v>212.0227942864127</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I14" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J14" t="n">
         <v>137.757029126597</v>
       </c>
       <c r="K14" t="n">
-        <v>395.962795401909</v>
+        <v>395.9627954019089</v>
       </c>
       <c r="L14" t="n">
-        <v>768.2589587052587</v>
+        <v>768.2589587052585</v>
       </c>
       <c r="M14" t="n">
-        <v>1197.722468029211</v>
+        <v>1197.72246802921</v>
       </c>
       <c r="N14" t="n">
-        <v>1618.61797093203</v>
+        <v>1618.617970932029</v>
       </c>
       <c r="O14" t="n">
-        <v>1969.929307769078</v>
+        <v>1969.929307769077</v>
       </c>
       <c r="P14" t="n">
-        <v>2232.826612716459</v>
+        <v>2232.826612716457</v>
       </c>
       <c r="Q14" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R14" t="n">
-        <v>2278.769331531008</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="S14" t="n">
-        <v>2278.769331531008</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="T14" t="n">
-        <v>2278.769331531008</v>
+        <v>2103.262293733725</v>
       </c>
       <c r="U14" t="n">
-        <v>2278.769331531008</v>
+        <v>1849.332201692231</v>
       </c>
       <c r="V14" t="n">
-        <v>2278.769331531008</v>
+        <v>1849.332201692231</v>
       </c>
       <c r="W14" t="n">
-        <v>2278.769331531008</v>
+        <v>1495.261376439145</v>
       </c>
       <c r="X14" t="n">
-        <v>2278.769331531008</v>
+        <v>1495.261376439145</v>
       </c>
       <c r="Y14" t="n">
-        <v>2128.909802024559</v>
+        <v>1495.261376439145</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.8294599441549</v>
+        <v>669.9681834693919</v>
       </c>
       <c r="C15" t="n">
-        <v>807.076344865972</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D15" t="n">
-        <v>659.488038224916</v>
+        <v>349.6267617501529</v>
       </c>
       <c r="E15" t="n">
-        <v>501.8785092277707</v>
+        <v>192.0172327530076</v>
       </c>
       <c r="F15" t="n">
-        <v>356.9227192443875</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1130923472257</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="H15" t="n">
-        <v>114.2093394196257</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I15" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J15" t="n">
-        <v>108.8611578587506</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="K15" t="n">
-        <v>341.092327492145</v>
+        <v>261.8008521287443</v>
       </c>
       <c r="L15" t="n">
-        <v>714.2054011338194</v>
+        <v>634.9139257704185</v>
       </c>
       <c r="M15" t="n">
-        <v>1202.410953541628</v>
+        <v>1123.119478178227</v>
       </c>
       <c r="N15" t="n">
-        <v>1718.936586224144</v>
+        <v>1639.645110860743</v>
       </c>
       <c r="O15" t="n">
-        <v>1889.850587719949</v>
+        <v>2044.537134598778</v>
       </c>
       <c r="P15" t="n">
-        <v>2198.385591602395</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="Q15" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R15" t="n">
-        <v>2293.900601640849</v>
+        <v>2293.900601640848</v>
       </c>
       <c r="S15" t="n">
-        <v>2134.145883571923</v>
+        <v>2160.937727023343</v>
       </c>
       <c r="T15" t="n">
-        <v>2134.145883571923</v>
+        <v>1962.919590642171</v>
       </c>
       <c r="U15" t="n">
-        <v>2045.893080577553</v>
+        <v>1736.03180410279</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.641837103154</v>
+        <v>1501.780560628391</v>
       </c>
       <c r="W15" t="n">
-        <v>1559.127345436487</v>
+        <v>1249.266068961724</v>
       </c>
       <c r="X15" t="n">
-        <v>1352.600446842065</v>
+        <v>1042.739170367302</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.872011065715</v>
+        <v>837.0107345909523</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.06144276962453</v>
+        <v>514.234312320661</v>
       </c>
       <c r="C16" t="n">
-        <v>47.06144276962453</v>
+        <v>345.2074911780325</v>
       </c>
       <c r="D16" t="n">
-        <v>47.06144276962453</v>
+        <v>194.6968179310432</v>
       </c>
       <c r="E16" t="n">
-        <v>47.06144276962453</v>
+        <v>194.6968179310432</v>
       </c>
       <c r="F16" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="G16" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="H16" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I16" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J16" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="K16" t="n">
-        <v>88.52550135650139</v>
+        <v>88.52550135650131</v>
       </c>
       <c r="L16" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084142</v>
       </c>
       <c r="M16" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499602</v>
       </c>
       <c r="N16" t="n">
-        <v>450.2970280645392</v>
+        <v>450.2970280645389</v>
       </c>
       <c r="O16" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211512</v>
       </c>
       <c r="P16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798</v>
       </c>
       <c r="Q16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798</v>
       </c>
       <c r="R16" t="n">
-        <v>617.2102128798003</v>
+        <v>514.234312320661</v>
       </c>
       <c r="S16" t="n">
-        <v>617.2102128798003</v>
+        <v>514.234312320661</v>
       </c>
       <c r="T16" t="n">
-        <v>617.2102128798003</v>
+        <v>514.234312320661</v>
       </c>
       <c r="U16" t="n">
-        <v>617.2102128798003</v>
+        <v>514.234312320661</v>
       </c>
       <c r="V16" t="n">
-        <v>617.2102128798003</v>
+        <v>514.234312320661</v>
       </c>
       <c r="W16" t="n">
-        <v>328.227811983421</v>
+        <v>514.234312320661</v>
       </c>
       <c r="X16" t="n">
-        <v>328.227811983421</v>
+        <v>514.234312320661</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.2695555513319</v>
+        <v>514.234312320661</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2278.769331531008</v>
+        <v>1607.315282794471</v>
       </c>
       <c r="C17" t="n">
-        <v>1908.077315693693</v>
+        <v>1236.623266957156</v>
       </c>
       <c r="D17" t="n">
-        <v>1547.870514931472</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="E17" t="n">
-        <v>1160.882600027141</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="F17" t="n">
-        <v>749.4746571175037</v>
+        <v>465.0085232852978</v>
       </c>
       <c r="G17" t="n">
-        <v>331.5275766018304</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="H17" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I17" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J17" t="n">
-        <v>137.757029126597</v>
+        <v>137.7570291265969</v>
       </c>
       <c r="K17" t="n">
-        <v>395.9627954019095</v>
+        <v>395.9627954019086</v>
       </c>
       <c r="L17" t="n">
-        <v>768.2589587052593</v>
+        <v>768.2589587052585</v>
       </c>
       <c r="M17" t="n">
-        <v>1197.722468029211</v>
+        <v>1197.72246802921</v>
       </c>
       <c r="N17" t="n">
-        <v>1618.61797093203</v>
+        <v>1618.617970932029</v>
       </c>
       <c r="O17" t="n">
-        <v>1969.929307769078</v>
+        <v>1969.929307769077</v>
       </c>
       <c r="P17" t="n">
-        <v>2232.826612716459</v>
+        <v>2232.826612716457</v>
       </c>
       <c r="Q17" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R17" t="n">
-        <v>2278.769331531008</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="S17" t="n">
-        <v>2278.769331531008</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="T17" t="n">
-        <v>2278.769331531008</v>
+        <v>2335.993783937627</v>
       </c>
       <c r="U17" t="n">
-        <v>2278.769331531008</v>
+        <v>2335.993783937627</v>
       </c>
       <c r="V17" t="n">
-        <v>2278.769331531008</v>
+        <v>2335.993783937627</v>
       </c>
       <c r="W17" t="n">
-        <v>2278.769331531008</v>
+        <v>1981.922958684542</v>
       </c>
       <c r="X17" t="n">
-        <v>2278.769331531008</v>
+        <v>1607.315282794471</v>
       </c>
       <c r="Y17" t="n">
-        <v>2278.769331531008</v>
+        <v>1607.315282794471</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>643.176340017971</v>
+        <v>649.1682813694084</v>
       </c>
       <c r="C18" t="n">
-        <v>470.4232249397882</v>
+        <v>476.4151662912256</v>
       </c>
       <c r="D18" t="n">
-        <v>322.8349182987321</v>
+        <v>328.8268596501695</v>
       </c>
       <c r="E18" t="n">
-        <v>220.1130923472257</v>
+        <v>328.8268596501695</v>
       </c>
       <c r="F18" t="n">
-        <v>220.1130923472257</v>
+        <v>183.8710696667863</v>
       </c>
       <c r="G18" t="n">
-        <v>220.1130923472257</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="H18" t="n">
-        <v>114.2093394196257</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I18" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J18" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="K18" t="n">
-        <v>107.1143052499141</v>
+        <v>261.8008521287443</v>
       </c>
       <c r="L18" t="n">
-        <v>480.2273788915884</v>
+        <v>634.9139257704185</v>
       </c>
       <c r="M18" t="n">
-        <v>968.4329312993975</v>
+        <v>1123.119478178227</v>
       </c>
       <c r="N18" t="n">
-        <v>1484.958563981913</v>
+        <v>1639.645110860743</v>
       </c>
       <c r="O18" t="n">
-        <v>1889.850587719949</v>
+        <v>2044.537134598778</v>
       </c>
       <c r="P18" t="n">
-        <v>2198.385591602395</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="Q18" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R18" t="n">
-        <v>2293.900601640849</v>
+        <v>2293.900601640848</v>
       </c>
       <c r="S18" t="n">
-        <v>2134.145883571923</v>
+        <v>2134.145883571921</v>
       </c>
       <c r="T18" t="n">
-        <v>1936.127747190751</v>
+        <v>1936.127747190749</v>
       </c>
       <c r="U18" t="n">
-        <v>1709.23996065137</v>
+        <v>1709.239960651368</v>
       </c>
       <c r="V18" t="n">
-        <v>1474.98871717697</v>
+        <v>1474.988717176969</v>
       </c>
       <c r="W18" t="n">
-        <v>1222.474225510304</v>
+        <v>1222.474225510302</v>
       </c>
       <c r="X18" t="n">
-        <v>1015.947326915881</v>
+        <v>1021.939268267318</v>
       </c>
       <c r="Y18" t="n">
-        <v>810.2188911395315</v>
+        <v>816.2108324909689</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.06144276962453</v>
+        <v>464.2161189379657</v>
       </c>
       <c r="C19" t="n">
-        <v>47.06144276962453</v>
+        <v>464.2161189379657</v>
       </c>
       <c r="D19" t="n">
-        <v>47.06144276962453</v>
+        <v>313.7054456909764</v>
       </c>
       <c r="E19" t="n">
-        <v>47.06144276962453</v>
+        <v>313.7054456909764</v>
       </c>
       <c r="F19" t="n">
-        <v>47.06144276962453</v>
+        <v>166.0700705295577</v>
       </c>
       <c r="G19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="H19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="K19" t="n">
-        <v>88.52550135650139</v>
+        <v>88.52550135650131</v>
       </c>
       <c r="L19" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084142</v>
       </c>
       <c r="M19" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499602</v>
       </c>
       <c r="N19" t="n">
-        <v>450.2970280645392</v>
+        <v>450.2970280645389</v>
       </c>
       <c r="O19" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211512</v>
       </c>
       <c r="P19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798</v>
       </c>
       <c r="Q19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798</v>
       </c>
       <c r="R19" t="n">
-        <v>464.216118937966</v>
+        <v>464.2161189379657</v>
       </c>
       <c r="S19" t="n">
-        <v>464.216118937966</v>
+        <v>464.2161189379657</v>
       </c>
       <c r="T19" t="n">
-        <v>235.681952097639</v>
+        <v>464.2161189379657</v>
       </c>
       <c r="U19" t="n">
-        <v>47.06144276962453</v>
+        <v>464.2161189379657</v>
       </c>
       <c r="V19" t="n">
-        <v>47.06144276962453</v>
+        <v>464.2161189379657</v>
       </c>
       <c r="W19" t="n">
-        <v>47.06144276962453</v>
+        <v>464.2161189379657</v>
       </c>
       <c r="X19" t="n">
-        <v>47.06144276962453</v>
+        <v>464.2161189379657</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.06144276962453</v>
+        <v>464.2161189379657</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.423870103351</v>
+        <v>1623.611181861487</v>
       </c>
       <c r="C20" t="n">
-        <v>1340.731854266035</v>
+        <v>1623.611181861487</v>
       </c>
       <c r="D20" t="n">
-        <v>1340.731854266035</v>
+        <v>1263.404381099266</v>
       </c>
       <c r="E20" t="n">
-        <v>953.7439393617037</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="F20" t="n">
-        <v>542.3359964520665</v>
+        <v>465.0085232852978</v>
       </c>
       <c r="G20" t="n">
-        <v>542.3359964520665</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="H20" t="n">
-        <v>212.0227942864127</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I20" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J20" t="n">
-        <v>137.757029126597</v>
+        <v>137.7570291265965</v>
       </c>
       <c r="K20" t="n">
-        <v>395.962795401909</v>
+        <v>395.9627954019088</v>
       </c>
       <c r="L20" t="n">
-        <v>768.2589587052589</v>
+        <v>768.2589587052585</v>
       </c>
       <c r="M20" t="n">
-        <v>1197.722468029211</v>
+        <v>1197.72246802921</v>
       </c>
       <c r="N20" t="n">
-        <v>1618.61797093203</v>
+        <v>1618.617970932029</v>
       </c>
       <c r="O20" t="n">
-        <v>1969.929307769078</v>
+        <v>1969.929307769077</v>
       </c>
       <c r="P20" t="n">
-        <v>2232.826612716459</v>
+        <v>2232.826612716457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R20" t="n">
-        <v>2278.769331531008</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="S20" t="n">
-        <v>2095.848734195516</v>
+        <v>2170.151541145733</v>
       </c>
       <c r="T20" t="n">
-        <v>1875.438539095581</v>
+        <v>1949.741346045797</v>
       </c>
       <c r="U20" t="n">
-        <v>1711.423870103351</v>
+        <v>1949.741346045797</v>
       </c>
       <c r="V20" t="n">
-        <v>1711.423870103351</v>
+        <v>1949.741346045797</v>
       </c>
       <c r="W20" t="n">
-        <v>1711.423870103351</v>
+        <v>1623.611181861487</v>
       </c>
       <c r="X20" t="n">
-        <v>1711.423870103351</v>
+        <v>1623.611181861487</v>
       </c>
       <c r="Y20" t="n">
-        <v>1711.423870103351</v>
+        <v>1623.611181861487</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>659.488038224916</v>
+        <v>900.366013239519</v>
       </c>
       <c r="C21" t="n">
-        <v>659.488038224916</v>
+        <v>727.6128981613363</v>
       </c>
       <c r="D21" t="n">
-        <v>659.488038224916</v>
+        <v>580.0245915202802</v>
       </c>
       <c r="E21" t="n">
-        <v>501.8785092277707</v>
+        <v>422.4150625231349</v>
       </c>
       <c r="F21" t="n">
-        <v>356.9227192443875</v>
+        <v>277.4592725397517</v>
       </c>
       <c r="G21" t="n">
-        <v>220.1130923472257</v>
+        <v>152.9651956972245</v>
       </c>
       <c r="H21" t="n">
-        <v>114.2093394196257</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I21" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J21" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="K21" t="n">
-        <v>107.1143052499141</v>
+        <v>279.2926124030188</v>
       </c>
       <c r="L21" t="n">
-        <v>480.2273788915884</v>
+        <v>652.4056860446931</v>
       </c>
       <c r="M21" t="n">
-        <v>968.4329312993975</v>
+        <v>1140.611238452502</v>
       </c>
       <c r="N21" t="n">
-        <v>1484.958563981913</v>
+        <v>1657.136871135018</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.850587719949</v>
+        <v>1889.850587719947</v>
       </c>
       <c r="P21" t="n">
-        <v>2198.385591602395</v>
+        <v>2198.385591602394</v>
       </c>
       <c r="Q21" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R21" t="n">
-        <v>2293.900601640849</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="S21" t="n">
-        <v>2134.145883571923</v>
+        <v>2193.317420412298</v>
       </c>
       <c r="T21" t="n">
-        <v>1936.127747190751</v>
+        <v>2193.317420412298</v>
       </c>
       <c r="U21" t="n">
-        <v>1709.23996065137</v>
+        <v>1966.429633872917</v>
       </c>
       <c r="V21" t="n">
-        <v>1474.98871717697</v>
+        <v>1732.178390398518</v>
       </c>
       <c r="W21" t="n">
-        <v>1222.474225510304</v>
+        <v>1479.663898731851</v>
       </c>
       <c r="X21" t="n">
-        <v>1015.947326915881</v>
+        <v>1273.137000137429</v>
       </c>
       <c r="Y21" t="n">
-        <v>810.2188911395315</v>
+        <v>1067.408564361079</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="C22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="D22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="E22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="F22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="G22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="H22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="I22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="J22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="K22" t="n">
-        <v>88.52550135650139</v>
+        <v>88.52550135650131</v>
       </c>
       <c r="L22" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084142</v>
       </c>
       <c r="M22" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499602</v>
       </c>
       <c r="N22" t="n">
-        <v>450.2970280645392</v>
+        <v>450.2970280645389</v>
       </c>
       <c r="O22" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211512</v>
       </c>
       <c r="P22" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798</v>
       </c>
       <c r="Q22" t="n">
-        <v>577.8912501622827</v>
+        <v>617.2102128798</v>
       </c>
       <c r="R22" t="n">
-        <v>424.8971562204484</v>
+        <v>617.2102128798</v>
       </c>
       <c r="S22" t="n">
-        <v>208.8781538118386</v>
+        <v>617.2102128798</v>
       </c>
       <c r="T22" t="n">
-        <v>47.06144276962453</v>
+        <v>617.2102128798</v>
       </c>
       <c r="U22" t="n">
-        <v>47.06144276962453</v>
+        <v>336.0438436660038</v>
       </c>
       <c r="V22" t="n">
-        <v>47.06144276962453</v>
+        <v>336.0438436660038</v>
       </c>
       <c r="W22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="X22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.0614427696245</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>583.9322767015045</v>
+        <v>1320.536914206469</v>
       </c>
       <c r="C23" t="n">
-        <v>213.2402608641887</v>
+        <v>1320.536914206469</v>
       </c>
       <c r="D23" t="n">
-        <v>53.53110657407781</v>
+        <v>1320.536914206469</v>
       </c>
       <c r="E23" t="n">
-        <v>53.53110657407781</v>
+        <v>933.5489993021381</v>
       </c>
       <c r="F23" t="n">
-        <v>53.53110657407781</v>
+        <v>522.1410563925008</v>
       </c>
       <c r="G23" t="n">
-        <v>53.53110657407781</v>
+        <v>104.4766657201458</v>
       </c>
       <c r="H23" t="n">
-        <v>53.53110657407781</v>
+        <v>104.4766657201458</v>
       </c>
       <c r="I23" t="n">
         <v>53.53110657407781</v>
@@ -6004,7 +6004,7 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O23" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P23" t="n">
         <v>2526.389973845557</v>
@@ -6016,25 +6016,25 @@
         <v>2676.555328703891</v>
       </c>
       <c r="S23" t="n">
-        <v>2676.555328703891</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T23" t="n">
-        <v>2676.555328703891</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U23" t="n">
-        <v>2422.647851849862</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="V23" t="n">
-        <v>2090.796112938227</v>
+        <v>1695.144590096539</v>
       </c>
       <c r="W23" t="n">
-        <v>1736.725287685141</v>
+        <v>1695.144590096539</v>
       </c>
       <c r="X23" t="n">
-        <v>1362.117611795071</v>
+        <v>1320.536914206469</v>
       </c>
       <c r="Y23" t="n">
-        <v>971.524610026146</v>
+        <v>1320.536914206469</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C24" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D24" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E24" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F24" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G24" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I24" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J24" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K24" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L24" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M24" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N24" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O24" t="n">
-        <v>2236.011258252653</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P24" t="n">
-        <v>2572.854073537543</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q24" t="n">
         <v>2676.555328703891</v>
@@ -6113,7 +6113,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K25" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L25" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M25" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N25" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O25" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U25" t="n">
-        <v>2676.555328703891</v>
+        <v>537.4469762702884</v>
       </c>
       <c r="V25" t="n">
-        <v>2421.064064999912</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="W25" t="n">
-        <v>2132.081664103533</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="X25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1957.216260630392</v>
+        <v>1006.259366569364</v>
       </c>
       <c r="C26" t="n">
-        <v>1957.216260630392</v>
+        <v>1006.259366569364</v>
       </c>
       <c r="D26" t="n">
-        <v>1597.009459868171</v>
+        <v>1006.259366569364</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.021544963841</v>
+        <v>1006.259366569364</v>
       </c>
       <c r="F26" t="n">
-        <v>798.6136020542033</v>
+        <v>594.8514236597271</v>
       </c>
       <c r="G26" t="n">
-        <v>380.9492113818483</v>
+        <v>177.187032987372</v>
       </c>
       <c r="H26" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I26" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J26" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K26" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248489</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M26" t="n">
-        <v>1355.324135626646</v>
+        <v>1355.324135626645</v>
       </c>
       <c r="N26" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O26" t="n">
         <v>2223.65047400805</v>
@@ -6253,25 +6253,25 @@
         <v>2676.555328703891</v>
       </c>
       <c r="S26" t="n">
-        <v>2508.240719852838</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T26" t="n">
-        <v>2289.067999542028</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U26" t="n">
-        <v>2289.067999542028</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="V26" t="n">
-        <v>1957.216260630392</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="W26" t="n">
-        <v>1957.216260630392</v>
+        <v>1771.460044228359</v>
       </c>
       <c r="X26" t="n">
-        <v>1957.216260630392</v>
+        <v>1396.852368338289</v>
       </c>
       <c r="Y26" t="n">
-        <v>1957.216260630392</v>
+        <v>1006.259366569364</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C27" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D27" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E27" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F27" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G27" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H27" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I27" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J27" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K27" t="n">
-        <v>309.7001854454658</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L27" t="n">
-        <v>715.0007321791048</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M27" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O27" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P27" t="n">
-        <v>2502.945759567338</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R27" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S27" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X27" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.40888383105383</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K28" t="n">
         <v>109.4344173802943</v>
@@ -6417,19 +6417,19 @@
         <v>727.6944649328329</v>
       </c>
       <c r="U28" t="n">
-        <v>727.6944649328329</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V28" t="n">
-        <v>727.6944649328329</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W28" t="n">
-        <v>727.6944649328329</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X28" t="n">
-        <v>499.2698589406014</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.3116025085122</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>1523.762317720254</v>
       </c>
       <c r="C29" t="n">
-        <v>1153.070301882938</v>
+        <v>1212.133765150267</v>
       </c>
       <c r="D29" t="n">
-        <v>1153.070301882938</v>
+        <v>851.9269643880459</v>
       </c>
       <c r="E29" t="n">
-        <v>766.0823869786072</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="F29" t="n">
-        <v>354.67444406897</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G29" t="n">
-        <v>354.67444406897</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H29" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I29" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K29" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M29" t="n">
         <v>1355.324135626645</v>
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.4794979670866</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C30" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D30" t="n">
-        <v>659.1380762478477</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E30" t="n">
-        <v>501.5285472507024</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F30" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G30" t="n">
-        <v>219.9143827707593</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H30" t="n">
-        <v>115.4714096068667</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I30" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J30" t="n">
         <v>129.3364848865957</v>
@@ -6566,22 +6566,22 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R30" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U30" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V30" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X30" t="n">
         <v>1352.250484864996</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C31" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D31" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E31" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F31" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G31" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H31" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I31" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J31" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K31" t="n">
         <v>109.4344173802943</v>
@@ -6657,16 +6657,16 @@
         <v>438.7865626553465</v>
       </c>
       <c r="V31" t="n">
-        <v>211.2908932240091</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="W31" t="n">
-        <v>211.2908932240091</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="X31" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y31" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1566.518254698688</v>
+        <v>1629.798155822622</v>
       </c>
       <c r="C32" t="n">
-        <v>1195.826238861373</v>
+        <v>1629.798155822622</v>
       </c>
       <c r="D32" t="n">
-        <v>835.6194380991519</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E32" t="n">
-        <v>464.9390494837151</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F32" t="n">
-        <v>53.53110657407782</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G32" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H32" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I32" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J32" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K32" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L32" t="n">
-        <v>877.2105568248486</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M32" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N32" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O32" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P32" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q32" t="n">
         <v>2676.555328703891</v>
@@ -6736,16 +6736,16 @@
         <v>2676.555328703891</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.703589792255</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.703589792255</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="X32" t="n">
-        <v>2344.703589792255</v>
+        <v>2407.983490916188</v>
       </c>
       <c r="Y32" t="n">
-        <v>1954.11058802333</v>
+        <v>2017.390489147263</v>
       </c>
     </row>
     <row r="33">
@@ -6755,70 +6755,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.4794979670866</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C33" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D33" t="n">
-        <v>659.1380762478477</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E33" t="n">
-        <v>501.5285472507024</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G33" t="n">
-        <v>219.9143827707593</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H33" t="n">
-        <v>115.4714096068667</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I33" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J33" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K33" t="n">
-        <v>309.7001854454658</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L33" t="n">
-        <v>715.0007321791048</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M33" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N33" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O33" t="n">
-        <v>2236.011258252653</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P33" t="n">
-        <v>2572.854073537543</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q33" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R33" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S33" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T33" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U33" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V33" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X33" t="n">
         <v>1352.250484864996</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2310.662430242057</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="C34" t="n">
-        <v>2310.662430242057</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D34" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E34" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F34" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G34" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K34" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L34" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M34" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N34" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O34" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R34" t="n">
-        <v>2647.854549863712</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S34" t="n">
-        <v>2434.045411584172</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T34" t="n">
-        <v>2310.662430242057</v>
+        <v>352.4096178820436</v>
       </c>
       <c r="U34" t="n">
-        <v>2310.662430242057</v>
+        <v>352.4096178820436</v>
       </c>
       <c r="V34" t="n">
-        <v>2310.662430242057</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="W34" t="n">
-        <v>2310.662430242057</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="X34" t="n">
-        <v>2310.662430242057</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="Y34" t="n">
-        <v>2310.662430242057</v>
+        <v>222.5579277167064</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1290.738224109501</v>
+        <v>1169.305617891519</v>
       </c>
       <c r="C35" t="n">
-        <v>920.0462082721853</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="D35" t="n">
-        <v>559.8394075099646</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="E35" t="n">
-        <v>172.8514926056338</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="F35" t="n">
-        <v>53.53110657407781</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G35" t="n">
-        <v>53.53110657407781</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H35" t="n">
         <v>53.53110657407781</v>
@@ -6940,7 +6940,7 @@
         <v>167.7421803733073</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L35" t="n">
         <v>877.210556824848</v>
@@ -6964,25 +6964,25 @@
         <v>2620.010037624014</v>
       </c>
       <c r="S35" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T35" t="n">
-        <v>2443.531235093138</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.531235093138</v>
+        <v>2146.929840459175</v>
       </c>
       <c r="V35" t="n">
-        <v>2443.531235093138</v>
+        <v>1815.07810154754</v>
       </c>
       <c r="W35" t="n">
-        <v>2443.531235093138</v>
+        <v>1461.007276294454</v>
       </c>
       <c r="X35" t="n">
-        <v>2068.923559203068</v>
+        <v>1461.007276294454</v>
       </c>
       <c r="Y35" t="n">
-        <v>1678.330557434143</v>
+        <v>1169.305617891519</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D36" t="n">
         <v>659.1380762478473</v>
       </c>
       <c r="E36" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F36" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G36" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H36" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I36" t="n">
         <v>53.53110657407781</v>
@@ -7043,19 +7043,19 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S36" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T36" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X36" t="n">
         <v>1352.250484864996</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>410.0857838151677</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C37" t="n">
-        <v>410.0857838151677</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D37" t="n">
-        <v>410.0857838151677</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E37" t="n">
-        <v>370.1325336853038</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F37" t="n">
-        <v>222.497158523885</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G37" t="n">
         <v>53.53110657407781</v>
@@ -7116,31 +7116,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U37" t="n">
-        <v>410.0857838151677</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V37" t="n">
-        <v>410.0857838151677</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W37" t="n">
-        <v>410.0857838151677</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X37" t="n">
-        <v>410.0857838151677</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y37" t="n">
-        <v>410.0857838151677</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1284.528473763577</v>
+        <v>1356.157265178229</v>
       </c>
       <c r="C38" t="n">
-        <v>1284.528473763577</v>
+        <v>985.4652493409136</v>
       </c>
       <c r="D38" t="n">
-        <v>924.3216730013569</v>
+        <v>625.258448578693</v>
       </c>
       <c r="E38" t="n">
-        <v>924.3216730013569</v>
+        <v>625.258448578693</v>
       </c>
       <c r="F38" t="n">
-        <v>924.3216730013569</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G38" t="n">
-        <v>506.6572823290019</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H38" t="n">
-        <v>179.2391775212315</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I38" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J38" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L38" t="n">
         <v>877.2105568248481</v>
@@ -7201,25 +7201,25 @@
         <v>2620.010037624014</v>
       </c>
       <c r="S38" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.358514782327</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U38" t="n">
-        <v>1970.451037928299</v>
+        <v>2146.929840459175</v>
       </c>
       <c r="V38" t="n">
-        <v>1638.599299016663</v>
+        <v>1815.07810154754</v>
       </c>
       <c r="W38" t="n">
-        <v>1284.528473763577</v>
+        <v>1815.07810154754</v>
       </c>
       <c r="X38" t="n">
-        <v>1284.528473763577</v>
+        <v>1440.47042565747</v>
       </c>
       <c r="Y38" t="n">
-        <v>1284.528473763577</v>
+        <v>1440.47042565747</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C39" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D39" t="n">
-        <v>659.1380762478473</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E39" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F39" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G39" t="n">
         <v>219.9143827707587</v>
@@ -7256,22 +7256,22 @@
         <v>53.53110657407781</v>
       </c>
       <c r="K39" t="n">
-        <v>239.7918714752595</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L39" t="n">
-        <v>645.0924182088986</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M39" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O39" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P39" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q39" t="n">
         <v>2676.555328703891</v>
@@ -7298,7 +7298,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C40" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D40" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E40" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F40" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G40" t="n">
-        <v>2160.151756995067</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H40" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I40" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J40" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K40" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L40" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M40" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N40" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O40" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P40" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q40" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R40" t="n">
-        <v>2601.953259224657</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>2388.144120945116</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.151756995067</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U40" t="n">
-        <v>2160.151756995067</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="V40" t="n">
-        <v>2160.151756995067</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="W40" t="n">
-        <v>2160.151756995067</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="X40" t="n">
-        <v>2160.151756995067</v>
+        <v>456.3920816836253</v>
       </c>
       <c r="Y40" t="n">
-        <v>2160.151756995067</v>
+        <v>235.4338252515362</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1911.354651044895</v>
+        <v>1284.528473763577</v>
       </c>
       <c r="C41" t="n">
-        <v>1540.66263520758</v>
+        <v>913.8364579262617</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.591355060401</v>
+        <v>553.6296571640411</v>
       </c>
       <c r="E41" t="n">
-        <v>882.6034401560701</v>
+        <v>553.6296571640411</v>
       </c>
       <c r="F41" t="n">
-        <v>471.1954972464328</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="G41" t="n">
-        <v>53.53110657407781</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="H41" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I41" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J41" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K41" t="n">
         <v>461.1915665632927</v>
@@ -7435,28 +7435,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R41" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S41" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T41" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U41" t="n">
-        <v>2676.555328703891</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V41" t="n">
-        <v>2676.555328703891</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="W41" t="n">
-        <v>2676.555328703891</v>
+        <v>1284.528473763577</v>
       </c>
       <c r="X41" t="n">
-        <v>2301.947652813821</v>
+        <v>1284.528473763577</v>
       </c>
       <c r="Y41" t="n">
-        <v>1911.354651044895</v>
+        <v>1284.528473763577</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.4794979670864</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C42" t="n">
-        <v>806.7263828889036</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D42" t="n">
-        <v>659.1380762478474</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E42" t="n">
-        <v>501.5285472507021</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F42" t="n">
-        <v>356.5727572673189</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G42" t="n">
         <v>219.9143827707587</v>
@@ -7493,22 +7493,22 @@
         <v>53.53110657407781</v>
       </c>
       <c r="K42" t="n">
-        <v>239.7918714752595</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L42" t="n">
-        <v>645.0924182088986</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M42" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O42" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P42" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q42" t="n">
         <v>2676.555328703891</v>
@@ -7517,25 +7517,25 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S42" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V42" t="n">
         <v>1811.291875126085</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X42" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="43">
@@ -7596,19 +7596,19 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S43" t="n">
-        <v>727.6944649328329</v>
+        <v>570.9381134626888</v>
       </c>
       <c r="T43" t="n">
-        <v>727.6944649328329</v>
+        <v>570.9381134626888</v>
       </c>
       <c r="U43" t="n">
-        <v>598.0047711744361</v>
+        <v>570.9381134626888</v>
       </c>
       <c r="V43" t="n">
-        <v>342.5135074704571</v>
+        <v>570.9381134626888</v>
       </c>
       <c r="W43" t="n">
-        <v>53.53110657407781</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="X43" t="n">
         <v>53.53110657407781</v>
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1461.007276294454</v>
+        <v>1487.753877277362</v>
       </c>
       <c r="C44" t="n">
-        <v>1090.315260457138</v>
+        <v>1487.753877277362</v>
       </c>
       <c r="D44" t="n">
-        <v>1090.315260457138</v>
+        <v>1487.753877277362</v>
       </c>
       <c r="E44" t="n">
-        <v>703.3273455528074</v>
+        <v>1100.765962373031</v>
       </c>
       <c r="F44" t="n">
-        <v>625.258448578693</v>
+        <v>689.3580194633942</v>
       </c>
       <c r="G44" t="n">
-        <v>207.594057906338</v>
+        <v>271.6936287910391</v>
       </c>
       <c r="H44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J44" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733072</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L44" t="n">
-        <v>877.2105568248481</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
@@ -7678,22 +7678,22 @@
         <v>2620.010037624014</v>
       </c>
       <c r="T44" t="n">
-        <v>2400.837317313204</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="U44" t="n">
-        <v>2146.929840459175</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="V44" t="n">
-        <v>1815.07810154754</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="W44" t="n">
-        <v>1461.007276294454</v>
+        <v>2265.939212370929</v>
       </c>
       <c r="X44" t="n">
-        <v>1461.007276294454</v>
+        <v>2265.939212370929</v>
       </c>
       <c r="Y44" t="n">
-        <v>1461.007276294454</v>
+        <v>1875.346210602004</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J45" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K45" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L45" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M45" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N45" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O45" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P45" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.6944649328329</v>
+        <v>351.6771549824858</v>
       </c>
       <c r="C46" t="n">
-        <v>727.6944649328329</v>
+        <v>351.6771549824858</v>
       </c>
       <c r="D46" t="n">
-        <v>577.1837916858437</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="E46" t="n">
-        <v>428.7245753492789</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="F46" t="n">
-        <v>281.0892001878602</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G46" t="n">
-        <v>281.0892001878602</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I46" t="n">
         <v>53.53110657407781</v>
@@ -7833,25 +7833,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S46" t="n">
-        <v>727.6944649328329</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="T46" t="n">
-        <v>727.6944649328329</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="U46" t="n">
-        <v>727.6944649328329</v>
+        <v>351.6771549824858</v>
       </c>
       <c r="V46" t="n">
-        <v>727.6944649328329</v>
+        <v>351.6771549824858</v>
       </c>
       <c r="W46" t="n">
-        <v>727.6944649328329</v>
+        <v>351.6771549824858</v>
       </c>
       <c r="X46" t="n">
-        <v>727.6944649328329</v>
+        <v>351.6771549824858</v>
       </c>
       <c r="Y46" t="n">
-        <v>727.6944649328329</v>
+        <v>351.6771549824858</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>454.8408013884634</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O2" t="n">
         <v>396.0321885132552</v>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
         <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>402.3419766228525</v>
+        <v>210.6142818167799</v>
       </c>
       <c r="O3" t="n">
-        <v>393.9423973145595</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8294,13 +8294,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>249.3531357735217</v>
       </c>
       <c r="M6" t="n">
         <v>412.8644904155703</v>
@@ -8309,13 +8309,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>217.8891172417261</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,10 +8531,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
@@ -8546,10 +8546,10 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>68.71072211854431</v>
+        <v>68.71072211854437</v>
       </c>
       <c r="K12" t="n">
-        <v>101.1263645202482</v>
+        <v>257.3754017715926</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>62.2313419939385</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>68.71072211854435</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>257.3754017715924</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9020,13 +9020,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
-        <v>173.2753754394847</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>62.23134199393849</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>68.71072211854431</v>
+        <v>68.71072211854435</v>
       </c>
       <c r="K18" t="n">
-        <v>101.1263645202486</v>
+        <v>257.3754017715924</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>62.23134199393849</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>68.7107221185443</v>
+        <v>68.71072211854435</v>
       </c>
       <c r="K21" t="n">
-        <v>101.1263645202486</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9494,7 +9494,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>235.6993300749647</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.8659206895198</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>427.9016107615324</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.2948314849568</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>147.8659206895203</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10904,7 +10904,7 @@
         <v>54.56358754946164</v>
       </c>
       <c r="K39" t="n">
-        <v>204.429387937318</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11062,7 +11062,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1112290740111</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
         <v>434.3676631324684</v>
@@ -11141,7 +11141,7 @@
         <v>54.56358754946164</v>
       </c>
       <c r="K42" t="n">
-        <v>204.429387937318</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789565</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22549,19 +22549,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>108.834228413685</v>
+        <v>141.5288582488041</v>
       </c>
       <c r="F2" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2655878973476</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -22615,7 +22615,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.82517927123197</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>44.95881684231239</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22722,10 +22722,10 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>136.4794921647121</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
         <v>88.83884492777894</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -22798,13 +22798,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>379.149172900034</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -22849,10 +22849,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>236.2893039350099</v>
       </c>
     </row>
     <row r="6">
@@ -22865,13 +22865,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>143.5062320835493</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>104.1537809005699</v>
+        <v>172.8448243787264</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -23004,7 +23004,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -23026,25 +23026,25 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>142.1881353833666</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>237.2261708758167</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23089,7 +23089,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>50.24743635262982</v>
       </c>
       <c r="W9" t="n">
-        <v>104.1537809005699</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23202,7 +23202,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>163.0775658318011</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -23241,7 +23241,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.07602402570831</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -23272,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.7676097105165</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.3117380016204</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>36.65182552843373</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>66.47641768350115</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.57982147197338</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>158.1571708882373</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>116.5495963667114</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>26.52392501690775</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>139.0932620502043</v>
       </c>
       <c r="J13" t="n">
-        <v>54.36123928117397</v>
+        <v>54.361239281174</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.9257730903424</v>
+        <v>38.92577309034244</v>
       </c>
       <c r="R13" t="n">
-        <v>86.9682598652812</v>
+        <v>151.464153002416</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T13" t="n">
         <v>226.2488251719237</v>
       </c>
       <c r="U13" t="n">
-        <v>286.025670721027</v>
+        <v>7.670965199368879</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
         <v>413.7676097105165</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.3117380016204</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>181.0913913621372</v>
       </c>
       <c r="T14" t="n">
-        <v>218.2060931489365</v>
+        <v>44.4541257296278</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3907911210793</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>238.3261375398506</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>66.47641768350114</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>26.52392501690753</v>
       </c>
       <c r="T15" t="n">
-        <v>196.0379550173603</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>137.2486337095615</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.4776598367935</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.4019283127586</v>
@@ -23676,7 +23676,7 @@
         <v>139.0932620502043</v>
       </c>
       <c r="J16" t="n">
-        <v>54.36123928117396</v>
+        <v>54.36123928117399</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.92577309034238</v>
+        <v>38.92577309034243</v>
       </c>
       <c r="R16" t="n">
-        <v>151.4641530024159</v>
+        <v>49.51801144886842</v>
       </c>
       <c r="S16" t="n">
         <v>213.8588123845238</v>
@@ -23715,13 +23715,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>45.38859765011335</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I17" t="n">
-        <v>163.3117380016203</v>
+        <v>163.3117380016204</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.55977888071598</v>
       </c>
       <c r="S17" t="n">
         <v>181.0913913621372</v>
       </c>
       <c r="T17" t="n">
-        <v>218.2060931489365</v>
+        <v>201.2985221507746</v>
       </c>
       <c r="U17" t="n">
         <v>251.3907911210793</v>
@@ -23794,10 +23794,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>54.33882601518248</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4415306281902</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>66.47641768350114</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>5.932021937924361</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4019283127586</v>
+        <v>49.58338683042473</v>
       </c>
       <c r="H19" t="n">
         <v>157.2983257928464</v>
@@ -23913,7 +23913,7 @@
         <v>139.0932620502043</v>
       </c>
       <c r="J19" t="n">
-        <v>54.36123928117397</v>
+        <v>54.36123928117399</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.9257730903424</v>
+        <v>38.92577309034243</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>213.8588123845238</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.2488251719237</v>
       </c>
       <c r="U19" t="n">
-        <v>99.29136648629263</v>
+        <v>286.025670721027</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23971,10 +23971,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.7676097105165</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.3117380016204</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.55977888071598</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>89.01626881877148</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>27.66125445808711</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.14858122487547</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>12.19239455408821</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>66.47641768350114</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>58.57982147197341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>196.0379550173603</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>139.0932620502043</v>
       </c>
       <c r="J22" t="n">
-        <v>54.36123928117396</v>
+        <v>54.36123928117399</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>38.92577309034243</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.464153002416</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T22" t="n">
-        <v>66.05028124013184</v>
+        <v>226.2488251719237</v>
       </c>
       <c r="U22" t="n">
-        <v>286.025670721027</v>
+        <v>7.670965199368766</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>198.4926700073886</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
-        <v>152.5223218189376</v>
+        <v>102.0862182643303</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S23" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24420,16 +24420,16 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0188232547115</v>
+        <v>97.67380947879244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>97.74756311149648</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24448,10 +24448,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>201.7245566105314</v>
       </c>
       <c r="I26" t="n">
         <v>152.5223218189376</v>
@@ -24493,7 +24493,7 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S26" t="n">
-        <v>8.082551743025562</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>124.8875534467961</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
@@ -24657,19 +24657,19 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>157.6260264338986</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>58.472828634655</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
-        <v>178.534341458687</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I31" t="n">
         <v>135.3180256216325</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>27.71563832991509</v>
+        <v>97.67380947879238</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>16.14445102600496</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>324.1439237596927</v>
@@ -24976,13 +24976,13 @@
         <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>104.975479721344</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -25092,7 +25092,7 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I34" t="n">
         <v>135.3180256216325</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R34" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T34" t="n">
-        <v>103.563288781855</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>124.3831778032554</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>289.1666813093004</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>152.5223218189376</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>97.90242993232999</v>
       </c>
     </row>
     <row r="36">
@@ -25320,13 +25320,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>107.4209065446339</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H37" t="n">
         <v>156.1821887834319</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R37" t="n">
         <v>145.8195582697328</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>157.6260264338986</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>300.2463811169472</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
-        <v>28.07133158125546</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25566,7 +25566,7 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I40" t="n">
         <v>135.3180256216325</v>
@@ -25596,10 +25596,10 @@
         <v>28.413771051777</v>
       </c>
       <c r="R40" t="n">
-        <v>71.96350948529142</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>183.2634408261424</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>88.24416540889155</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>388.8625439751075</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H41" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25836,22 +25836,22 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S43" t="n">
-        <v>211.671046896745</v>
+        <v>56.48225894130229</v>
       </c>
       <c r="T43" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
-        <v>157.6260264338987</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>330.0056554761676</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>324.1439237596927</v>
+        <v>108.163026764901</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>174.714014505568</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H46" t="n">
-        <v>66.21770172741985</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J46" t="n">
         <v>45.48578169199548</v>
@@ -26073,13 +26073,13 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S46" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0188232547115</v>
+        <v>125.4327333006129</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>694147.9330340701</v>
+        <v>694147.9330340698</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>694147.9330340701</v>
+        <v>694147.9330340698</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>694147.9330340702</v>
+        <v>694147.93303407</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>694147.9330340702</v>
+        <v>694147.93303407</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752427.3144658012</v>
+        <v>752427.314465801</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752427.314465801</v>
+        <v>752427.3144658011</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164518.2676502331</v>
+        <v>164518.2676502332</v>
       </c>
       <c r="C2" t="n">
         <v>164518.2676502332</v>
       </c>
       <c r="D2" t="n">
-        <v>164518.2676502331</v>
+        <v>164518.2676502332</v>
       </c>
       <c r="E2" t="n">
-        <v>248440.9536324345</v>
+        <v>248440.9536324343</v>
       </c>
       <c r="F2" t="n">
-        <v>248440.9536324346</v>
+        <v>248440.9536324343</v>
       </c>
       <c r="G2" t="n">
-        <v>248440.9536324346</v>
+        <v>248440.9536324343</v>
       </c>
       <c r="H2" t="n">
-        <v>248440.9536324345</v>
+        <v>248440.9536324344</v>
       </c>
       <c r="I2" t="n">
         <v>270047.2565422127</v>
       </c>
       <c r="J2" t="n">
+        <v>270047.2565422126</v>
+      </c>
+      <c r="K2" t="n">
         <v>270047.2565422127</v>
-      </c>
-      <c r="K2" t="n">
-        <v>270047.2565422128</v>
       </c>
       <c r="L2" t="n">
         <v>270047.2565422127</v>
       </c>
       <c r="M2" t="n">
+        <v>270047.2565422126</v>
+      </c>
+      <c r="N2" t="n">
+        <v>270047.2565422129</v>
+      </c>
+      <c r="O2" t="n">
         <v>270047.2565422127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>270047.2565422127</v>
-      </c>
-      <c r="O2" t="n">
-        <v>270047.2565422128</v>
       </c>
       <c r="P2" t="n">
         <v>270047.2565422127</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>311013.0387995447</v>
+        <v>311013.0387995444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.32519718148824e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73908.54814175429</v>
+        <v>73908.54814175458</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808627</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>78246.12537476214</v>
+        <v>78246.12537476208</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,28 +26429,28 @@
         <v>27727.10539165262</v>
       </c>
       <c r="F4" t="n">
-        <v>27727.10539165262</v>
+        <v>27727.10539165261</v>
       </c>
       <c r="G4" t="n">
-        <v>27727.10539165262</v>
+        <v>27727.10539165261</v>
       </c>
       <c r="H4" t="n">
         <v>27727.10539165262</v>
       </c>
       <c r="I4" t="n">
-        <v>28073.00293688769</v>
+        <v>28073.00293688768</v>
       </c>
       <c r="J4" t="n">
         <v>28073.00293688769</v>
       </c>
       <c r="K4" t="n">
-        <v>28073.00293688769</v>
+        <v>28073.00293688768</v>
       </c>
       <c r="L4" t="n">
         <v>28073.00293688769</v>
       </c>
       <c r="M4" t="n">
-        <v>28073.00293688769</v>
+        <v>28073.00293688768</v>
       </c>
       <c r="N4" t="n">
         <v>28073.00293688769</v>
@@ -26459,7 +26459,7 @@
         <v>28073.00293688768</v>
       </c>
       <c r="P4" t="n">
-        <v>28073.00293688769</v>
+        <v>28073.00293688768</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>41662.07004083533</v>
+        <v>41662.07004083532</v>
       </c>
       <c r="F5" t="n">
-        <v>41662.07004083534</v>
+        <v>41662.07004083532</v>
       </c>
       <c r="G5" t="n">
-        <v>41662.07004083534</v>
+        <v>41662.07004083532</v>
       </c>
       <c r="H5" t="n">
-        <v>41662.07004083534</v>
+        <v>41662.07004083532</v>
       </c>
       <c r="I5" t="n">
         <v>48096.64131659551</v>
       </c>
       <c r="J5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="K5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="L5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="M5" t="n">
         <v>48096.64131659551</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4090.780898416007</v>
+        <v>-15779.90992167176</v>
       </c>
       <c r="C6" t="n">
-        <v>87828.03146932401</v>
+        <v>76138.90244606807</v>
       </c>
       <c r="D6" t="n">
-        <v>87828.03146932389</v>
+        <v>76138.90244606807</v>
       </c>
       <c r="E6" t="n">
-        <v>-131961.2605995982</v>
+        <v>-139233.4061501065</v>
       </c>
       <c r="F6" t="n">
-        <v>179051.7781999466</v>
+        <v>171779.6326494379</v>
       </c>
       <c r="G6" t="n">
-        <v>179051.7781999466</v>
+        <v>171779.6326494379</v>
       </c>
       <c r="H6" t="n">
-        <v>179051.7781999465</v>
+        <v>171779.632649438</v>
       </c>
       <c r="I6" t="n">
-        <v>119969.0641469753</v>
+        <v>113834.0924338233</v>
       </c>
       <c r="J6" t="n">
-        <v>122112.8998006432</v>
+        <v>115977.9280874915</v>
       </c>
       <c r="K6" t="n">
-        <v>193877.6122887296</v>
+        <v>187742.6405755779</v>
       </c>
       <c r="L6" t="n">
-        <v>193877.6122887295</v>
+        <v>187742.6405755779</v>
       </c>
       <c r="M6" t="n">
-        <v>115631.4869139674</v>
+        <v>109496.5152008157</v>
       </c>
       <c r="N6" t="n">
-        <v>193877.6122887295</v>
+        <v>187742.640575578</v>
       </c>
       <c r="O6" t="n">
-        <v>193877.6122887296</v>
+        <v>187742.6405755778</v>
       </c>
       <c r="P6" t="n">
-        <v>193877.6122887295</v>
+        <v>187742.6405755778</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270.4299787119588</v>
+        <v>270.4299787119585</v>
       </c>
       <c r="F3" t="n">
-        <v>270.4299787119589</v>
+        <v>270.4299787119586</v>
       </c>
       <c r="G3" t="n">
-        <v>270.4299787119588</v>
+        <v>270.4299787119586</v>
       </c>
       <c r="H3" t="n">
-        <v>270.4299787119589</v>
+        <v>270.4299787119586</v>
       </c>
       <c r="I3" t="n">
         <v>340.045886252127</v>
@@ -26798,28 +26798,28 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>588.2680346203065</v>
+        <v>588.2680346203063</v>
       </c>
       <c r="F4" t="n">
-        <v>588.2680346203066</v>
+        <v>588.2680346203063</v>
       </c>
       <c r="G4" t="n">
-        <v>588.2680346203066</v>
+        <v>588.2680346203063</v>
       </c>
       <c r="H4" t="n">
-        <v>588.2680346203066</v>
+        <v>588.2680346203063</v>
       </c>
       <c r="I4" t="n">
         <v>669.1388321759727</v>
       </c>
       <c r="J4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="K4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="L4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="M4" t="n">
         <v>669.1388321759727</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270.4299787119588</v>
+        <v>270.4299787119585</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>69.61590754016811</v>
+        <v>69.61590754016839</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>313.984227278704</v>
+        <v>313.9842272787038</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.213199256248332e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.87079755566606</v>
+        <v>80.8707975556664</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416026</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.9842272787039</v>
+        <v>313.9842272787037</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.984227278704</v>
+        <v>313.9842272787038</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.213199256248332e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.087155693314406</v>
+        <v>1.087155693314405</v>
       </c>
       <c r="H11" t="n">
-        <v>11.13383324415617</v>
+        <v>11.13383324415616</v>
       </c>
       <c r="I11" t="n">
-        <v>41.91256986650369</v>
+        <v>41.91256986650365</v>
       </c>
       <c r="J11" t="n">
-        <v>92.27098052544369</v>
+        <v>92.27098052544359</v>
       </c>
       <c r="K11" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234424</v>
       </c>
       <c r="L11" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727132</v>
       </c>
       <c r="M11" t="n">
-        <v>190.8950271336934</v>
+        <v>190.8950271336932</v>
       </c>
       <c r="N11" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473228</v>
       </c>
       <c r="O11" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219277</v>
       </c>
       <c r="P11" t="n">
-        <v>156.3343476432284</v>
+        <v>156.3343476432283</v>
       </c>
       <c r="Q11" t="n">
-        <v>117.4005843764062</v>
+        <v>117.4005843764061</v>
       </c>
       <c r="R11" t="n">
-        <v>68.29104382016115</v>
+        <v>68.29104382016108</v>
       </c>
       <c r="S11" t="n">
-        <v>24.77356036140206</v>
+        <v>24.77356036140204</v>
       </c>
       <c r="T11" t="n">
-        <v>4.759024047483817</v>
+        <v>4.759024047483812</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0869724554651525</v>
+        <v>0.08697245546515241</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5816795768521379</v>
+        <v>0.5816795768521372</v>
       </c>
       <c r="H12" t="n">
-        <v>5.617800123808806</v>
+        <v>5.6178001238088</v>
       </c>
       <c r="I12" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197052</v>
       </c>
       <c r="J12" t="n">
-        <v>54.95596388145572</v>
+        <v>54.95596388145566</v>
       </c>
       <c r="K12" t="n">
-        <v>93.92849553054896</v>
+        <v>93.92849553054886</v>
       </c>
       <c r="L12" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371274</v>
       </c>
       <c r="M12" t="n">
-        <v>147.3843383980175</v>
+        <v>147.3843383980174</v>
       </c>
       <c r="N12" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796267</v>
       </c>
       <c r="O12" t="n">
-        <v>138.3963684451663</v>
+        <v>138.3963684451662</v>
       </c>
       <c r="P12" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166156</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.25088773993255</v>
+        <v>74.25088773993248</v>
       </c>
       <c r="R12" t="n">
-        <v>36.11515828911784</v>
+        <v>36.1151582891178</v>
       </c>
       <c r="S12" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T12" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908395</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03826839321395645</v>
+        <v>0.03826839321395641</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4876606173494339</v>
+        <v>0.4876606173494334</v>
       </c>
       <c r="H13" t="n">
-        <v>4.335746216070424</v>
+        <v>4.33574621607042</v>
       </c>
       <c r="I13" t="n">
-        <v>14.66528474719934</v>
+        <v>14.66528474719933</v>
       </c>
       <c r="J13" t="n">
-        <v>34.47760564660497</v>
+        <v>34.47760564660494</v>
       </c>
       <c r="K13" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932506</v>
       </c>
       <c r="L13" t="n">
-        <v>72.50183396484221</v>
+        <v>72.50183396484213</v>
       </c>
       <c r="M13" t="n">
-        <v>76.44301840869352</v>
+        <v>76.44301840869345</v>
       </c>
       <c r="N13" t="n">
-        <v>74.62537428948205</v>
+        <v>74.62537428948198</v>
       </c>
       <c r="O13" t="n">
-        <v>68.92861162317274</v>
+        <v>68.92861162317267</v>
       </c>
       <c r="P13" t="n">
-        <v>58.98033502924424</v>
+        <v>58.98033502924417</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.83492678550578</v>
+        <v>40.83492678550574</v>
       </c>
       <c r="R13" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736634</v>
       </c>
       <c r="S13" t="n">
-        <v>8.498594576898768</v>
+        <v>8.498594576898759</v>
       </c>
       <c r="T13" t="n">
-        <v>2.083640819583944</v>
+        <v>2.083640819583942</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02659967003724188</v>
+        <v>0.02659967003724185</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.087155693314407</v>
+        <v>1.087155693314406</v>
       </c>
       <c r="H14" t="n">
-        <v>11.13383324415617</v>
+        <v>11.13383324415616</v>
       </c>
       <c r="I14" t="n">
-        <v>41.91256986650371</v>
+        <v>41.91256986650366</v>
       </c>
       <c r="J14" t="n">
-        <v>92.27098052544372</v>
+        <v>92.27098052544362</v>
       </c>
       <c r="K14" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234424</v>
       </c>
       <c r="L14" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727132</v>
       </c>
       <c r="M14" t="n">
-        <v>190.8950271336935</v>
+        <v>190.8950271336932</v>
       </c>
       <c r="N14" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473228</v>
       </c>
       <c r="O14" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219277</v>
       </c>
       <c r="P14" t="n">
-        <v>156.3343476432285</v>
+        <v>156.3343476432283</v>
       </c>
       <c r="Q14" t="n">
-        <v>117.4005843764062</v>
+        <v>117.4005843764061</v>
       </c>
       <c r="R14" t="n">
-        <v>68.29104382016116</v>
+        <v>68.29104382016109</v>
       </c>
       <c r="S14" t="n">
-        <v>24.77356036140207</v>
+        <v>24.77356036140204</v>
       </c>
       <c r="T14" t="n">
-        <v>4.759024047483818</v>
+        <v>4.759024047483813</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08697245546515252</v>
+        <v>0.08697245546515243</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.581679576852138</v>
+        <v>0.5816795768521373</v>
       </c>
       <c r="H15" t="n">
-        <v>5.617800123808808</v>
+        <v>5.617800123808801</v>
       </c>
       <c r="I15" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197052</v>
       </c>
       <c r="J15" t="n">
-        <v>54.95596388145573</v>
+        <v>54.95596388145567</v>
       </c>
       <c r="K15" t="n">
-        <v>93.92849553054897</v>
+        <v>93.92849553054887</v>
       </c>
       <c r="L15" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M15" t="n">
-        <v>147.3843383980176</v>
+        <v>147.3843383980174</v>
       </c>
       <c r="N15" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796267</v>
       </c>
       <c r="O15" t="n">
-        <v>138.3963684451664</v>
+        <v>138.3963684451662</v>
       </c>
       <c r="P15" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166156</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.25088773993257</v>
+        <v>74.25088773993249</v>
       </c>
       <c r="R15" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911781</v>
       </c>
       <c r="S15" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T15" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908395</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03826839321395646</v>
+        <v>0.03826839321395642</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.487660617349434</v>
+        <v>0.4876606173494335</v>
       </c>
       <c r="H16" t="n">
-        <v>4.335746216070425</v>
+        <v>4.335746216070421</v>
       </c>
       <c r="I16" t="n">
-        <v>14.66528474719935</v>
+        <v>14.66528474719933</v>
       </c>
       <c r="J16" t="n">
-        <v>34.47760564660498</v>
+        <v>34.47760564660494</v>
       </c>
       <c r="K16" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932508</v>
       </c>
       <c r="L16" t="n">
-        <v>72.50183396484222</v>
+        <v>72.50183396484215</v>
       </c>
       <c r="M16" t="n">
-        <v>76.44301840869353</v>
+        <v>76.44301840869346</v>
       </c>
       <c r="N16" t="n">
-        <v>74.62537428948207</v>
+        <v>74.625374289482</v>
       </c>
       <c r="O16" t="n">
-        <v>68.92861162317276</v>
+        <v>68.92861162317269</v>
       </c>
       <c r="P16" t="n">
-        <v>58.98033502924424</v>
+        <v>58.98033502924419</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.83492678550579</v>
+        <v>40.83492678550574</v>
       </c>
       <c r="R16" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736634</v>
       </c>
       <c r="S16" t="n">
-        <v>8.498594576898769</v>
+        <v>8.498594576898761</v>
       </c>
       <c r="T16" t="n">
-        <v>2.083640819583945</v>
+        <v>2.083640819583942</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02659967003724189</v>
+        <v>0.02659967003724186</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>1.087155693314406</v>
       </c>
       <c r="H17" t="n">
-        <v>11.13383324415617</v>
+        <v>11.13383324415616</v>
       </c>
       <c r="I17" t="n">
-        <v>41.91256986650369</v>
+        <v>41.91256986650366</v>
       </c>
       <c r="J17" t="n">
-        <v>92.27098052544369</v>
+        <v>92.27098052544362</v>
       </c>
       <c r="K17" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234424</v>
       </c>
       <c r="L17" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727132</v>
       </c>
       <c r="M17" t="n">
-        <v>190.8950271336934</v>
+        <v>190.8950271336932</v>
       </c>
       <c r="N17" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473228</v>
       </c>
       <c r="O17" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219277</v>
       </c>
       <c r="P17" t="n">
-        <v>156.3343476432284</v>
+        <v>156.3343476432283</v>
       </c>
       <c r="Q17" t="n">
-        <v>117.4005843764062</v>
+        <v>117.4005843764061</v>
       </c>
       <c r="R17" t="n">
-        <v>68.29104382016115</v>
+        <v>68.29104382016109</v>
       </c>
       <c r="S17" t="n">
-        <v>24.77356036140206</v>
+        <v>24.77356036140204</v>
       </c>
       <c r="T17" t="n">
-        <v>4.759024047483817</v>
+        <v>4.759024047483813</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0869724554651525</v>
+        <v>0.08697245546515243</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5816795768521379</v>
+        <v>0.5816795768521373</v>
       </c>
       <c r="H18" t="n">
-        <v>5.617800123808806</v>
+        <v>5.617800123808801</v>
       </c>
       <c r="I18" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197052</v>
       </c>
       <c r="J18" t="n">
-        <v>54.95596388145572</v>
+        <v>54.95596388145567</v>
       </c>
       <c r="K18" t="n">
-        <v>93.92849553054896</v>
+        <v>93.92849553054887</v>
       </c>
       <c r="L18" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M18" t="n">
-        <v>147.3843383980175</v>
+        <v>147.3843383980174</v>
       </c>
       <c r="N18" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796267</v>
       </c>
       <c r="O18" t="n">
-        <v>138.3963684451663</v>
+        <v>138.3963684451662</v>
       </c>
       <c r="P18" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166156</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.25088773993255</v>
+        <v>74.25088773993249</v>
       </c>
       <c r="R18" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911781</v>
       </c>
       <c r="S18" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T18" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908395</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03826839321395645</v>
+        <v>0.03826839321395642</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4876606173494339</v>
+        <v>0.4876606173494335</v>
       </c>
       <c r="H19" t="n">
-        <v>4.335746216070424</v>
+        <v>4.335746216070421</v>
       </c>
       <c r="I19" t="n">
-        <v>14.66528474719934</v>
+        <v>14.66528474719933</v>
       </c>
       <c r="J19" t="n">
-        <v>34.47760564660497</v>
+        <v>34.47760564660494</v>
       </c>
       <c r="K19" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932508</v>
       </c>
       <c r="L19" t="n">
-        <v>72.50183396484221</v>
+        <v>72.50183396484215</v>
       </c>
       <c r="M19" t="n">
-        <v>76.44301840869352</v>
+        <v>76.44301840869346</v>
       </c>
       <c r="N19" t="n">
-        <v>74.62537428948205</v>
+        <v>74.625374289482</v>
       </c>
       <c r="O19" t="n">
-        <v>68.92861162317274</v>
+        <v>68.92861162317269</v>
       </c>
       <c r="P19" t="n">
-        <v>58.98033502924424</v>
+        <v>58.98033502924419</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.83492678550578</v>
+        <v>40.83492678550574</v>
       </c>
       <c r="R19" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736634</v>
       </c>
       <c r="S19" t="n">
-        <v>8.498594576898768</v>
+        <v>8.498594576898761</v>
       </c>
       <c r="T19" t="n">
-        <v>2.083640819583944</v>
+        <v>2.083640819583942</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02659967003724188</v>
+        <v>0.02659967003724186</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.087155693314407</v>
+        <v>1.087155693314406</v>
       </c>
       <c r="H20" t="n">
-        <v>11.13383324415617</v>
+        <v>11.13383324415616</v>
       </c>
       <c r="I20" t="n">
-        <v>41.91256986650371</v>
+        <v>41.91256986650366</v>
       </c>
       <c r="J20" t="n">
-        <v>92.27098052544372</v>
+        <v>92.27098052544362</v>
       </c>
       <c r="K20" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234424</v>
       </c>
       <c r="L20" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727132</v>
       </c>
       <c r="M20" t="n">
-        <v>190.8950271336935</v>
+        <v>190.8950271336932</v>
       </c>
       <c r="N20" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473228</v>
       </c>
       <c r="O20" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219277</v>
       </c>
       <c r="P20" t="n">
-        <v>156.3343476432285</v>
+        <v>156.3343476432283</v>
       </c>
       <c r="Q20" t="n">
-        <v>117.4005843764062</v>
+        <v>117.4005843764061</v>
       </c>
       <c r="R20" t="n">
-        <v>68.29104382016116</v>
+        <v>68.29104382016109</v>
       </c>
       <c r="S20" t="n">
-        <v>24.77356036140207</v>
+        <v>24.77356036140204</v>
       </c>
       <c r="T20" t="n">
-        <v>4.759024047483818</v>
+        <v>4.759024047483813</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08697245546515252</v>
+        <v>0.08697245546515243</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.581679576852138</v>
+        <v>0.5816795768521373</v>
       </c>
       <c r="H21" t="n">
-        <v>5.617800123808808</v>
+        <v>5.617800123808801</v>
       </c>
       <c r="I21" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197052</v>
       </c>
       <c r="J21" t="n">
-        <v>54.95596388145573</v>
+        <v>54.95596388145567</v>
       </c>
       <c r="K21" t="n">
-        <v>93.92849553054897</v>
+        <v>93.92849553054887</v>
       </c>
       <c r="L21" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M21" t="n">
-        <v>147.3843383980176</v>
+        <v>147.3843383980174</v>
       </c>
       <c r="N21" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796267</v>
       </c>
       <c r="O21" t="n">
-        <v>138.3963684451664</v>
+        <v>138.3963684451662</v>
       </c>
       <c r="P21" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166156</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.25088773993257</v>
+        <v>74.25088773993249</v>
       </c>
       <c r="R21" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911781</v>
       </c>
       <c r="S21" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T21" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908395</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03826839321395646</v>
+        <v>0.03826839321395642</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.487660617349434</v>
+        <v>0.4876606173494335</v>
       </c>
       <c r="H22" t="n">
-        <v>4.335746216070425</v>
+        <v>4.335746216070421</v>
       </c>
       <c r="I22" t="n">
-        <v>14.66528474719935</v>
+        <v>14.66528474719933</v>
       </c>
       <c r="J22" t="n">
-        <v>34.47760564660498</v>
+        <v>34.47760564660494</v>
       </c>
       <c r="K22" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932508</v>
       </c>
       <c r="L22" t="n">
-        <v>72.50183396484222</v>
+        <v>72.50183396484215</v>
       </c>
       <c r="M22" t="n">
-        <v>76.44301840869353</v>
+        <v>76.44301840869346</v>
       </c>
       <c r="N22" t="n">
-        <v>74.62537428948207</v>
+        <v>74.625374289482</v>
       </c>
       <c r="O22" t="n">
-        <v>68.92861162317276</v>
+        <v>68.92861162317269</v>
       </c>
       <c r="P22" t="n">
-        <v>58.98033502924424</v>
+        <v>58.98033502924419</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.83492678550579</v>
+        <v>40.83492678550574</v>
       </c>
       <c r="R22" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736634</v>
       </c>
       <c r="S22" t="n">
-        <v>8.498594576898769</v>
+        <v>8.498594576898761</v>
       </c>
       <c r="T22" t="n">
-        <v>2.083640819583945</v>
+        <v>2.083640819583942</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02659967003724189</v>
+        <v>0.02659967003724186</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2838073416025</v>
+        <v>82.55611253552989</v>
       </c>
       <c r="O3" t="n">
-        <v>254.9110589812261</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>114.2626154881444</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
@@ -35029,13 +35029,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>78.85777890839283</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
@@ -35266,10 +35266,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.61170339088127</v>
+        <v>91.61170339088117</v>
       </c>
       <c r="K11" t="n">
-        <v>260.8139053285979</v>
+        <v>260.8139053285977</v>
       </c>
       <c r="L11" t="n">
-        <v>376.0567306094442</v>
+        <v>376.056730609444</v>
       </c>
       <c r="M11" t="n">
-        <v>433.8015245696483</v>
+        <v>433.8015245696481</v>
       </c>
       <c r="N11" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291101</v>
       </c>
       <c r="O11" t="n">
-        <v>354.8599361990384</v>
+        <v>354.8599361990383</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5528332801825</v>
+        <v>265.5528332801824</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351187</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>60.65945705079714</v>
+        <v>216.9084943021415</v>
       </c>
       <c r="L12" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673476</v>
       </c>
       <c r="M12" t="n">
-        <v>493.1369216240496</v>
+        <v>493.1369216240495</v>
       </c>
       <c r="N12" t="n">
-        <v>521.7430633156725</v>
+        <v>521.7430633156723</v>
       </c>
       <c r="O12" t="n">
-        <v>408.9818421596317</v>
+        <v>408.9818421596316</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6515190731783</v>
+        <v>311.6515190731782</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.2490372513446</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149171</v>
       </c>
       <c r="L13" t="n">
-        <v>109.9629641938515</v>
+        <v>109.9629641938514</v>
       </c>
       <c r="M13" t="n">
-        <v>126.6404264056021</v>
+        <v>126.640426405602</v>
       </c>
       <c r="N13" t="n">
         <v>128.8223939541199</v>
       </c>
       <c r="O13" t="n">
-        <v>103.4968196531438</v>
+        <v>103.4968196531437</v>
       </c>
       <c r="P13" t="n">
-        <v>65.10235692792807</v>
+        <v>65.10235692792801</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.6117033908813</v>
+        <v>91.6117033908812</v>
       </c>
       <c r="K14" t="n">
-        <v>260.8139053285979</v>
+        <v>260.8139053285977</v>
       </c>
       <c r="L14" t="n">
-        <v>376.0567306094442</v>
+        <v>376.0567306094441</v>
       </c>
       <c r="M14" t="n">
-        <v>433.8015245696484</v>
+        <v>433.8015245696482</v>
       </c>
       <c r="N14" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291102</v>
       </c>
       <c r="O14" t="n">
-        <v>354.8599361990385</v>
+        <v>354.8599361990383</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5528332801826</v>
+        <v>265.5528332801824</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351187</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.42395463548088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.5769390236308</v>
+        <v>216.9084943021412</v>
       </c>
       <c r="L15" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673477</v>
       </c>
       <c r="M15" t="n">
-        <v>493.1369216240496</v>
+        <v>493.1369216240495</v>
       </c>
       <c r="N15" t="n">
-        <v>521.7430633156725</v>
+        <v>521.7430633156724</v>
       </c>
       <c r="O15" t="n">
-        <v>172.6404055513177</v>
+        <v>408.9818421596316</v>
       </c>
       <c r="P15" t="n">
-        <v>311.6515190731783</v>
+        <v>311.6515190731782</v>
       </c>
       <c r="Q15" t="n">
-        <v>156.2490372513446</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149173</v>
       </c>
       <c r="L16" t="n">
-        <v>109.9629641938515</v>
+        <v>109.9629641938514</v>
       </c>
       <c r="M16" t="n">
-        <v>126.6404264056021</v>
+        <v>126.640426405602</v>
       </c>
       <c r="N16" t="n">
         <v>128.8223939541199</v>
       </c>
       <c r="O16" t="n">
-        <v>103.4968196531438</v>
+        <v>103.4968196531437</v>
       </c>
       <c r="P16" t="n">
-        <v>65.10235692792808</v>
+        <v>65.10235692792803</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.61170339088127</v>
+        <v>91.6117033908812</v>
       </c>
       <c r="K17" t="n">
-        <v>260.8139053285979</v>
+        <v>260.8139053285977</v>
       </c>
       <c r="L17" t="n">
-        <v>376.0567306094442</v>
+        <v>376.0567306094441</v>
       </c>
       <c r="M17" t="n">
-        <v>433.8015245696483</v>
+        <v>433.8015245696482</v>
       </c>
       <c r="N17" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291102</v>
       </c>
       <c r="O17" t="n">
-        <v>354.8599361990384</v>
+        <v>354.8599361990383</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5528332801825</v>
+        <v>265.5528332801824</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351187</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>60.65945705079759</v>
+        <v>216.9084943021412</v>
       </c>
       <c r="L18" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673477</v>
       </c>
       <c r="M18" t="n">
-        <v>493.1369216240496</v>
+        <v>493.1369216240495</v>
       </c>
       <c r="N18" t="n">
-        <v>521.7430633156725</v>
+        <v>521.7430633156724</v>
       </c>
       <c r="O18" t="n">
-        <v>408.9818421596317</v>
+        <v>408.9818421596316</v>
       </c>
       <c r="P18" t="n">
-        <v>311.6515190731783</v>
+        <v>311.6515190731782</v>
       </c>
       <c r="Q18" t="n">
-        <v>156.2490372513446</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149173</v>
       </c>
       <c r="L19" t="n">
-        <v>109.9629641938515</v>
+        <v>109.9629641938514</v>
       </c>
       <c r="M19" t="n">
-        <v>126.6404264056021</v>
+        <v>126.640426405602</v>
       </c>
       <c r="N19" t="n">
         <v>128.8223939541199</v>
       </c>
       <c r="O19" t="n">
-        <v>103.4968196531438</v>
+        <v>103.4968196531437</v>
       </c>
       <c r="P19" t="n">
-        <v>65.10235692792807</v>
+        <v>65.10235692792803</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.6117033908813</v>
+        <v>91.6117033908812</v>
       </c>
       <c r="K20" t="n">
-        <v>260.8139053285979</v>
+        <v>260.8139053285977</v>
       </c>
       <c r="L20" t="n">
-        <v>376.0567306094442</v>
+        <v>376.0567306094441</v>
       </c>
       <c r="M20" t="n">
-        <v>433.8015245696484</v>
+        <v>433.8015245696482</v>
       </c>
       <c r="N20" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291102</v>
       </c>
       <c r="O20" t="n">
-        <v>354.8599361990385</v>
+        <v>354.8599361990383</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5528332801826</v>
+        <v>265.5528332801824</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351187</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>60.65945705079753</v>
+        <v>234.5769390236306</v>
       </c>
       <c r="L21" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673477</v>
       </c>
       <c r="M21" t="n">
-        <v>493.1369216240496</v>
+        <v>493.1369216240495</v>
       </c>
       <c r="N21" t="n">
-        <v>521.7430633156725</v>
+        <v>521.7430633156724</v>
       </c>
       <c r="O21" t="n">
-        <v>408.9818421596317</v>
+        <v>235.0643601867976</v>
       </c>
       <c r="P21" t="n">
-        <v>311.6515190731783</v>
+        <v>311.6515190731782</v>
       </c>
       <c r="Q21" t="n">
         <v>156.2490372513446</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149173</v>
       </c>
       <c r="L22" t="n">
-        <v>109.9629641938515</v>
+        <v>109.9629641938514</v>
       </c>
       <c r="M22" t="n">
-        <v>126.6404264056021</v>
+        <v>126.640426405602</v>
       </c>
       <c r="N22" t="n">
         <v>128.8223939541199</v>
       </c>
       <c r="O22" t="n">
-        <v>103.4968196531438</v>
+        <v>103.4968196531437</v>
       </c>
       <c r="P22" t="n">
-        <v>65.10235692792808</v>
+        <v>65.10235692792803</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K24" t="n">
         <v>258.7566453246342</v>
@@ -36457,7 +36457,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7487425922706</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K27" t="n">
         <v>258.7566453246342</v>
@@ -36685,7 +36685,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N27" t="n">
-        <v>490.0734509978756</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O27" t="n">
         <v>444.6087679740798</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
-        <v>175.3632011480339</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.17765338770756</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K33" t="n">
         <v>258.7566453246342</v>
@@ -37168,7 +37168,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.7487425922711</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.1421867688705</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L39" t="n">
         <v>409.3944916501405</v>
@@ -37642,7 +37642,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>115.3647210093229</v>
       </c>
       <c r="K41" t="n">
-        <v>296.4135214040255</v>
+        <v>296.4135214040257</v>
       </c>
       <c r="L41" t="n">
         <v>420.2212022843993</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.1421867688705</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L42" t="n">
         <v>409.3944916501405</v>
@@ -37879,7 +37879,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>115.3647210093229</v>
+        <v>115.3647210093227</v>
       </c>
       <c r="K44" t="n">
         <v>296.4135214040257</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K45" t="n">
         <v>258.7566453246342</v>
@@ -38107,7 +38107,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N45" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O45" t="n">
         <v>444.6087679740798</v>
@@ -38116,7 +38116,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
